--- a/team_results/saipa/xlsx_saipa_1_played_games_data.xlsx
+++ b/team_results/saipa/xlsx_saipa_1_played_games_data.xlsx
@@ -914,7 +914,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="n">
         <v>104</v>
@@ -948,7 +948,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" t="n">
         <v>106</v>
@@ -1662,7 +1662,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B37" t="n">
         <v>259</v>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B38" t="n">
         <v>267</v>
@@ -1730,7 +1730,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" t="n">
         <v>269</v>
@@ -1798,7 +1798,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B41" t="n">
         <v>289</v>

--- a/team_results/saipa/xlsx_saipa_1_played_games_data.xlsx
+++ b/team_results/saipa/xlsx_saipa_1_played_games_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="n">
         <v>171</v>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="n">
         <v>172</v>
@@ -2133,6 +2133,74 @@
       <c r="H50" t="inlineStr">
         <is>
           <t>saipa</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>399</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2022-03-02</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>hifk</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>saipa</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>6</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>hifk</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>410</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2022-03-04</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>pelicans</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>saipa</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>4</v>
+      </c>
+      <c r="G52" t="n">
+        <v>3</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>pelicans</t>
         </is>
       </c>
     </row>
